--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264865.5887192104</v>
+        <v>256821.7737258527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>18249983.41937636</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>3650026.315129925</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6936430.817847258</v>
+        <v>6880212.918993554</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>375.1779006052033</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>54.14078383575796</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>90.32734763589878</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>308.5328330396309</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>12.12919593777005</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>32.69681262526384</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>172.7351112707882</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>134.1187379059486</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0402736571996</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>131.1678547432277</v>
       </c>
       <c r="H11" t="n">
-        <v>164.9220671784276</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170476</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.3203511418</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.18350266510014</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,13 +1852,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>119.7582680545283</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>45.91568880648735</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,16 +2092,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>54.55340531488933</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>143.8427601615724</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>119.9348501475796</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>103.8284742946031</v>
+        <v>35.34780583513515</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.6990987647609</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>397.658891538043</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1984.538953263538</v>
+        <v>1361.645008385326</v>
       </c>
       <c r="C2" t="n">
-        <v>1605.571376894645</v>
+        <v>923.502535568749</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.571376894645</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>53.81800590148857</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148857</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1293.567921177999</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4352,28 +4354,28 @@
         <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.838523748445</v>
+        <v>2615.373165991269</v>
       </c>
       <c r="X2" t="n">
-        <v>2410.838523748445</v>
+        <v>2196.23070257058</v>
       </c>
       <c r="Y2" t="n">
-        <v>2410.838523748445</v>
+        <v>1787.944578870233</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H3" t="n">
         <v>53.40121652862857</v>
@@ -4416,13 +4418,13 @@
         <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704072</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516131</v>
       </c>
       <c r="C4" t="n">
-        <v>731.3355420887848</v>
+        <v>650.2374875648467</v>
       </c>
       <c r="D4" t="n">
-        <v>565.4575492903075</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933192</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644548</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324159</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1292.433105213329</v>
       </c>
       <c r="N4" t="n">
         <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.643005136801</v>
       </c>
       <c r="S4" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266358</v>
       </c>
       <c r="V4" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.10727672308</v>
       </c>
       <c r="X4" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513706003</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.445958355598</v>
+        <v>1208.541273492781</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.796632052941</v>
+        <v>770.3988006762046</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.796632052941</v>
+        <v>770.3988006762046</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>770.3988006762046</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>714.2412710704072</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2657.809113362974</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2398.586810679991</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2035.969860613817</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2035.969860613817</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1616.827397193128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.445958355598</v>
+        <v>1208.541273492781</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392437</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>370.0104448764978</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>193.303390838254</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.14638787069</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="C8" t="n">
-        <v>1057.14638787069</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="D8" t="n">
-        <v>1057.14638787069</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>770.3988006762046</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>714.2412710704072</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615266</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.445958355598</v>
+        <v>1204.173545517909</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>95.13686871241609</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>277.7880908295406</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>938.6281453713192</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4972,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1483.445958355598</v>
       </c>
       <c r="D11" t="n">
-        <v>1483.445958355598</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.671213513893</v>
+        <v>613.7614286883377</v>
       </c>
       <c r="F11" t="n">
-        <v>621.803783923101</v>
+        <v>185.8939990975454</v>
       </c>
       <c r="G11" t="n">
-        <v>220.4059525463649</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862856</v>
@@ -5130,10 +5132,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N12" t="n">
+        <v>53.40121652862856</v>
+      </c>
+      <c r="O12" t="n">
         <v>397.8892067392439</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C13" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D13" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E13" t="n">
-        <v>254.6973458817257</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F13" t="n">
-        <v>77.99029184348186</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G13" t="n">
         <v>53.40121652862856</v>
@@ -5209,7 +5211,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1171.796632052941</v>
+        <v>1011.477214236519</v>
       </c>
       <c r="C14" t="n">
-        <v>1171.796632052941</v>
+        <v>573.3347414199418</v>
       </c>
       <c r="D14" t="n">
-        <v>1171.796632052941</v>
+        <v>137.4249565943863</v>
       </c>
       <c r="E14" t="n">
-        <v>1171.796632052941</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F14" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362203</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1293.567921177999</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>2265.205371842462</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>1846.062908421773</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.776784721425</v>
+        <v>1437.776784721426</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5348,31 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N15" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704072</v>
       </c>
       <c r="O15" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5425,13 +5427,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5446,7 +5448,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1476.28885129138</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C17" t="n">
-        <v>1038.146378474803</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D17" t="n">
-        <v>602.2365936492474</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E17" t="n">
-        <v>602.2365936492474</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F17" t="n">
-        <v>174.3691640584552</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M17" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362203</v>
       </c>
       <c r="O17" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177999</v>
       </c>
       <c r="P17" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="X17" t="n">
-        <v>1902.588421776288</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y17" t="n">
-        <v>1902.588421776288</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5585,31 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N18" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392437</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392437</v>
       </c>
       <c r="P18" t="n">
         <v>1058.729261281022</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>632.7278666362203</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>632.7278666362203</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>1293.567921177999</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>1293.567921177999</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>2670.060826431429</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>2614.956376618409</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>2195.81391319772</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>1787.527789497373</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>95.1368687124161</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>397.8892067392437</v>
       </c>
       <c r="P21" t="n">
-        <v>1116.062450089081</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1656.801388721157</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6074,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.803889081883</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,31 +6229,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>306.1208027766299</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
         <v>4809.322912595856</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6318,10 +6320,10 @@
         <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L29" t="n">
-        <v>306.1208027766299</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.168637987181</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6552,16 +6554,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>828.6046571760505</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>828.6046571760505</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>811.7546776883914</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>645.8766848899141</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>476.1186811406514</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6691,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,16 +6788,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,25 +6943,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>852.6195887352246</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.667423945775</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7029,7 +7031,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>356.7918199602167</v>
       </c>
       <c r="K38" t="n">
-        <v>211.2405030940769</v>
+        <v>356.7918199602167</v>
       </c>
       <c r="L38" t="n">
-        <v>1286.300469346936</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.634124109936</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>885.0724125931612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>719.1944197946839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>549.4364160454211</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>372.7293620071773</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G40" t="n">
-        <v>207.138087033005</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514815</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249.452742828923</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7500,10 +7502,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>53.40121652862856</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304466</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.771296621483</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.771296621483</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2190.771296621483</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2190.771296621483</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2190.771296621483</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>53.40121652862856</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O45" t="n">
-        <v>397.8892067392439</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.8950539462403</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>590.3333424294652</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>424.4553496309879</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>254.6973458817252</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>77.9902918434814</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.819457729424</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.94001130788</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1986.507010560985</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.551502431415</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.525098017707</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.133343351119</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.7136726652275</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.527235004721</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521129</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521129</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.6534083847597</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8778,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>347.9676668794094</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6822035600078</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P24" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>733.6806231366373</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>757.9381297620657</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="K38" t="n">
-        <v>110.08046749828</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,10 +10834,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10908,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521124</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O45" t="n">
-        <v>347.9676668794094</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>58.58314748320765</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>346.666116207319</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>80.50874676570854</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>125.22821504878</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>205.7373589179217</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,16 +22950,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>135.3636110865063</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23027,16 +23029,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>256.7018861224996</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>280.8323008805338</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23179,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437728</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>266.2159983197411</v>
       </c>
       <c r="H11" t="n">
-        <v>121.3167858327883</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.7162236382587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>346.2534947281876</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>277.6255850084404</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23789,16 +23791,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>369.035349979995</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>346.2534947281877</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.09722333628895</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>44.28436272291295</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.67467827192613</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.37768324201568</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473467.7198410673</v>
+        <v>473467.7198410672</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737600.6177922932</v>
+        <v>473467.7198410674</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737600.6177922932</v>
+        <v>737600.6177922931</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737600.6177922931</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737600.6177922931</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737600.6177922931</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473467.7198410671</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
   </sheetData>
@@ -26323,13 +26325,13 @@
         <v>118366.9299602668</v>
       </c>
       <c r="F2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="G2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="H2" t="n">
-        <v>184400.1544480733</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="I2" t="n">
         <v>184400.1544480733</v>
@@ -26338,7 +26340,7 @@
         <v>184400.1544480733</v>
       </c>
       <c r="K2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480733</v>
@@ -26353,7 +26355,7 @@
         <v>184400.1544480733</v>
       </c>
       <c r="P2" t="n">
-        <v>118366.9299602668</v>
+        <v>184400.1544480733</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642068</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26418,46 +26420,46 @@
         <v>517.5868204130782</v>
       </c>
       <c r="C4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="E4" t="n">
         <v>517.586820413078</v>
       </c>
       <c r="F4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="G4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
+        <v>806.3323907826023</v>
+      </c>
+      <c r="N4" t="n">
         <v>806.3323907826024</v>
-      </c>
-      <c r="N4" t="n">
-        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>517.586820413078</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175772</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175772</v>
       </c>
       <c r="H5" t="n">
+        <v>40584.92456175772</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="J5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="M5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="J5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="P5" t="n">
-        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26525,22 +26527,22 @@
         <v>43636.81857809603</v>
       </c>
       <c r="D6" t="n">
-        <v>43636.81857809606</v>
+        <v>43636.81857809602</v>
       </c>
       <c r="E6" t="n">
         <v>77264.41857809605</v>
       </c>
       <c r="F6" t="n">
-        <v>77264.41857809605</v>
+        <v>77264.41857809607</v>
       </c>
       <c r="G6" t="n">
         <v>77264.41857809605</v>
       </c>
       <c r="H6" t="n">
-        <v>-58908.99432657735</v>
+        <v>77264.41857809608</v>
       </c>
       <c r="I6" t="n">
-        <v>105875.5834514982</v>
+        <v>-56534.41661270862</v>
       </c>
       <c r="J6" t="n">
         <v>-68775.76526620798</v>
@@ -26561,7 +26563,7 @@
         <v>105875.5834514982</v>
       </c>
       <c r="P6" t="n">
-        <v>77264.41857809605</v>
+        <v>105875.5834514982</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="E4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.527235004721</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34784,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908146</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521129</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521129</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.6534083847597</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>347.9676668794094</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6822035600078</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>585.1784344521128</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>347.9676668794092</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P24" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>733.6806231366373</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>757.9381297620657</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="K38" t="n">
-        <v>110.08046749828</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,10 +37554,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37868,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521124</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O45" t="n">
-        <v>347.9676668794094</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256821.7737258527</v>
+        <v>254023.9273648897</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937636</v>
+        <v>18249983.41937635</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>266.123847852485</v>
       </c>
       <c r="W2" t="n">
-        <v>54.14078383575796</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>90.32734763589878</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>35.16791248334784</v>
       </c>
       <c r="T5" t="n">
-        <v>12.12919593777005</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>168.3894349117781</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>167.2703536528519</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>134.1187379059486</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1472970361152</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>129.0617197611587</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>131.1678547432277</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>296.9592364133312</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022511</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18350266510014</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.66811097253164</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>214.7185463506575</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>45.91568880648735</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>142.7266608659938</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>54.55340531488933</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>35.34780583513515</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1361.645008385326</v>
+        <v>927.4534741707607</v>
       </c>
       <c r="C2" t="n">
-        <v>923.502535568749</v>
+        <v>489.3110013541841</v>
       </c>
       <c r="D2" t="n">
-        <v>487.5927507431934</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E2" t="n">
-        <v>53.81800590148857</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148857</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148857</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148857</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177999</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4354,28 +4354,28 @@
         <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431429</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431429</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431429</v>
+        <v>2181.181631776704</v>
       </c>
       <c r="W2" t="n">
-        <v>2615.373165991269</v>
+        <v>2181.181631776704</v>
       </c>
       <c r="X2" t="n">
-        <v>2196.23070257058</v>
+        <v>1762.039168356015</v>
       </c>
       <c r="Y2" t="n">
-        <v>1787.944578870233</v>
+        <v>1353.753044655668</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
         <v>53.40121652862857</v>
@@ -4424,7 +4424,7 @@
         <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704072</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516131</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C4" t="n">
-        <v>650.2374875648467</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D4" t="n">
-        <v>484.3594947663694</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F4" t="n">
-        <v>307.6524407281256</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933192</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644548</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324159</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213329</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
         <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.643005136801</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266358</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.10727672308</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513706003</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1208.541273492781</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>770.3988006762046</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>770.3988006762046</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762046</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862857</v>
@@ -4579,10 +4579,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704072</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719777</v>
@@ -4591,28 +4591,28 @@
         <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431429</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="T5" t="n">
-        <v>2657.809113362974</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="U5" t="n">
-        <v>2398.586810679991</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="V5" t="n">
-        <v>2035.969860613817</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.969860613817</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X5" t="n">
-        <v>1616.827397193128</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.541273492781</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
         <v>53.40121652862857</v>
@@ -4661,7 +4661,7 @@
         <v>53.40121652862857</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392437</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>2094.849673013155</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1807.894164883585</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1535.867760469877</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1290.476005803289</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>1063.056335117397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1204.173545517909</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1204.173545517909</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.173545517909</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762046</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704072</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615266</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="X8" t="n">
-        <v>1204.173545517909</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="Y8" t="n">
-        <v>1204.173545517909</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>277.7880908295406</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713192</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D10" t="n">
-        <v>447.554615037751</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483.445958355598</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="C11" t="n">
-        <v>1483.445958355598</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.536173530043</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E11" t="n">
-        <v>613.7614286883377</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F11" t="n">
-        <v>185.8939990975454</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
         <v>53.40121652862856</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365254</v>
+        <v>2066.382900828373</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>2066.382900828373</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355598</v>
+        <v>2066.382900828373</v>
       </c>
       <c r="Y11" t="n">
-        <v>1483.445958355598</v>
+        <v>2066.382900828373</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O12" t="n">
         <v>397.8892067392439</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516122</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348371</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363599</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870971</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885332</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G13" t="n">
         <v>53.40121652862856</v>
@@ -5211,7 +5211,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5226,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013251</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136787</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056491</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705994</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011.477214236519</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>573.3347414199418</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4249565943863</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862857</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362203</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177999</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431429</v>
+        <v>2631.002128479376</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431429</v>
+        <v>2410.934901352414</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431429</v>
+        <v>2151.712598669431</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431429</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842462</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421773</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.776784721426</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G15" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862857</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>714.2412710704072</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
         <v>1058.729261281022</v>
@@ -5427,13 +5427,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5448,7 +5448,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5500,67 +5500,67 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E17" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N17" t="n">
-        <v>632.7278666362203</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177999</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431429</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431429</v>
+        <v>2193.951103192225</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431429</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X17" t="n">
-        <v>2623.681342788512</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2215.395219088166</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N18" t="n">
-        <v>397.8892067392437</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O18" t="n">
-        <v>397.8892067392437</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P18" t="n">
         <v>1058.729261281022</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5697,28 +5697,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1361.228219012466</v>
+        <v>1900.887079447374</v>
       </c>
       <c r="C20" t="n">
-        <v>923.085746195889</v>
+        <v>1462.744606630797</v>
       </c>
       <c r="D20" t="n">
-        <v>487.1759613703334</v>
+        <v>1026.834821805242</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40121652862857</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L20" t="n">
-        <v>632.7278666362203</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M20" t="n">
-        <v>632.7278666362203</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177999</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177999</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431429</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431429</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431429</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431429</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431429</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W20" t="n">
-        <v>2614.956376618409</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X20" t="n">
-        <v>2195.81391319772</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.527789497373</v>
+        <v>2327.186649932281</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>95.1368687124161</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>397.8892067392437</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
         <v>1058.729261281022</v>
@@ -5901,13 +5901,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,7 +5937,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
         <v>2405.942210967199</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,49 +6229,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6466,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>228.5247761102221</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1303.584742363081</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M29" t="n">
-        <v>2460.632577573632</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N29" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>475.2748675296854</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6888,22 +6888,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,46 +6943,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>356.7918199602167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>356.7918199602167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.851786213076</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>303.5569696238763</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7487,19 +7487,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
         <v>1107.588885023173</v>
@@ -7596,10 +7596,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
         <v>2176.368833962455</v>
@@ -7636,22 +7636,22 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
         <v>306.120802776629</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O2" t="n">
-        <v>145.527235004721</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794092</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
         <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521129</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794092</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521129</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>226.6534083847597</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>347.9676668794094</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P12" t="n">
         <v>667.515206607857</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521128</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9005,22 +9005,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>585.1784344521128</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9406,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>585.1784344521128</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.482873487266</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22555,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,16 +22600,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>92.86693271302676</v>
       </c>
       <c r="W2" t="n">
-        <v>346.666116207319</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>80.50874676570854</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>47.64744259465352</v>
       </c>
       <c r="T5" t="n">
-        <v>205.7373589179217</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>191.7204269126599</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>280.8323008805338</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.07191583437728</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>113.876117358763</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>266.2159983197411</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>62.03154415218052</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444081</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>346.2534947281876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>44.14724410546972</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>144.2722342148543</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.035349979995</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>286.710336527294</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>346.2534947281877</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1553467313941</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473467.7198410673</v>
+        <v>473467.7198410672</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473467.7198410672</v>
+        <v>473467.7198410673</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473467.7198410673</v>
+        <v>473467.7198410672</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473467.7198410673</v>
+        <v>473467.7198410672</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473467.7198410674</v>
+        <v>473467.7198410672</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737600.6177922931</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737600.6177922931</v>
+        <v>737600.6177922932</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="C2" t="n">
         <v>118366.9299602668</v>
@@ -26325,13 +26325,13 @@
         <v>118366.9299602668</v>
       </c>
       <c r="F2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="G2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="H2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="I2" t="n">
         <v>184400.1544480733</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162410.0000642068</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26423,25 +26423,25 @@
         <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="E4" t="n">
         <v>517.586820413078</v>
       </c>
       <c r="F4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="G4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="H4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26453,7 +26453,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
@@ -26475,40 +26475,40 @@
         <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175772</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175772</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175772</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180062.8800059488</v>
+        <v>-180557.7702345301</v>
       </c>
       <c r="C6" t="n">
-        <v>43636.81857809603</v>
+        <v>43141.92834951479</v>
       </c>
       <c r="D6" t="n">
-        <v>43636.81857809602</v>
+        <v>43141.92834951478</v>
       </c>
       <c r="E6" t="n">
-        <v>77264.41857809605</v>
+        <v>76769.52834951476</v>
       </c>
       <c r="F6" t="n">
-        <v>77264.41857809607</v>
+        <v>76769.5283495148</v>
       </c>
       <c r="G6" t="n">
-        <v>77264.41857809605</v>
+        <v>76769.52834951476</v>
       </c>
       <c r="H6" t="n">
-        <v>77264.41857809608</v>
+        <v>76769.52834951479</v>
       </c>
       <c r="I6" t="n">
-        <v>-56534.41661270862</v>
+        <v>-56557.64095209141</v>
       </c>
       <c r="J6" t="n">
-        <v>-68775.76526620798</v>
+        <v>-68798.98960559061</v>
       </c>
       <c r="K6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="L6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121155</v>
       </c>
       <c r="M6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="N6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121156</v>
       </c>
       <c r="O6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121155</v>
       </c>
       <c r="P6" t="n">
-        <v>105875.5834514982</v>
+        <v>105852.3591121155</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O2" t="n">
-        <v>145.527235004721</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794092</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908146</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
         <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521129</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794092</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521129</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>226.6534083847597</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>347.9676668794094</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P12" t="n">
         <v>667.515206607857</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521128</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35895,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>585.1784344521128</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P18" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>585.1784344521128</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794092</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.482873487266</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
